--- a/va_facility_data_2025-02-20/Tucson VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Tucson%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tucson VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Tucson%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rce3832bb5d9f4f288ce8537e218511df"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R1e7ec5a2551f4ba1bd74d92186fa51ea"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R16c485eb81c745978b7bdbfa8fb30a91"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Raaaac913a3a9403b99338b43a824df29"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R0715768aed304e4f980fdb7878c561ac"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R221fd081add641bfbf7706b041df70c1"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Re4bdeab62da24e98ab90dd441005fc4e"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R881a3e0e71374751acd18c110712eb14"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R0a2e3b53a618415e86ade7f6c722702c"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R5415854b86d54bd680d7b5b2be5162d1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R71dfd69469944ac38d1536744cece00d"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R3764aeb9361a4dbcbf9b7ff05e2ae59f"/>
   </x:sheets>
 </x:workbook>
 </file>
